--- a/results_exact/48_origem_transbordo.xlsx
+++ b/results_exact/48_origem_transbordo.xlsx
@@ -444,14 +444,14 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>IPAMERI,GO, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>IPAMERI,GO, Brazil</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PORANGATU, GO, Brazil</t>
@@ -459,39 +459,39 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ANÁPOLIS, GO, Brazil</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PORTO NACIONAL, TO, Brazil</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>SÃO SIMÃO, GO, Brazil</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PORTO NACIONAL, TO, Brazil</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Paraúna, GO, Brazil</t>
+          <t>Padre Bernardo, GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>141554.56</v>
       </c>
       <c r="D2" t="n">
-        <v>300804.96</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -509,14 +509,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Caldas Novas, GO, Brazil</t>
+          <t>Niquelândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>124868</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -537,7 +537,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Quirinópolis, GO, Brazil</t>
+          <t>Santa Helena de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>58869.6</v>
+        <v>131920.8</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -565,17 +565,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Goiatuba, GO, Brazil</t>
+          <t>Cristalina, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159943.0690832418</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>652847.6</v>
       </c>
       <c r="D5" t="n">
-        <v>9500.976000000082</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -593,7 +593,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Piracanjuba, GO, Brazil</t>
+          <t>Gameleira de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>167929.6</v>
+        <v>69926.08</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -621,7 +621,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Santa Cruz de Goiás, GO, Brazil</t>
+          <t>Bom Jesus de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -643,20 +643,20 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>50682.88</v>
+        <v>152946.96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Orizona, GO, Brazil</t>
+          <t>Vicentinópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>55945.12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -671,26 +671,26 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>93300.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Perolândia, GO, Brazil</t>
+          <t>Itaberaí, GO, Brazil</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>48419.6</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>99059.92</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -705,20 +705,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Acreúna, GO, Brazil</t>
+          <t>Morrinhos, GO, Brazil</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>77611.2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>124916.64</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -733,11 +733,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Padre Bernardo, GO, Brazil</t>
+          <t>Ipameri, GO, Brazil</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141554.56</v>
+        <v>178404.652</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>74736.14799999999</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -761,14 +761,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Vianópolis, GO, Brazil</t>
+          <t>Montes Claros de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>88170.33600000001</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -783,29 +783,29 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>108798.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chapadão do Céu, GO, Brazil</t>
+          <t>Doverlândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46843.36</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>44684.57999999981</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>199260.2200000002</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -817,17 +817,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ipameri, GO, Brazil</t>
+          <t>Paraúna, GO, Brazil</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>178404.652</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>300804.96</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -845,14 +845,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Itaberaí, GO, Brazil</t>
+          <t>Palmeiras de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48419.6</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>86804.16</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -873,11 +873,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cristalina, GO, Brazil</t>
+          <t>Serranópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>652847.6</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -895,17 +895,17 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>80596.48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Montes Claros de Goiás, GO, Brazil</t>
+          <t>Acreúna, GO, Brazil</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88170.33600000001</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>124916.64</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -929,17 +929,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Edéia, GO, Brazil</t>
+          <t>São João d'Aliança, GO, Brazil</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>65679.2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>94696</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -957,11 +957,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Doverlândia, GO, Brazil</t>
+          <t>Turvelândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19459.59999999969</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>27383.76000000031</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>64432.8</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -985,17 +985,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bela Vista de Goiás, GO, Brazil</t>
+          <t>Caldas Novas, GO, Brazil</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>81122.39999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>48903.72</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1013,20 +1013,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Santa Helena de Goiás, GO, Brazil</t>
+          <t>Goiatuba, GO, Brazil</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>195412.72</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>131920.8</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1041,14 +1041,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mineiros, GO, Brazil</t>
+          <t>Joviânia, GO, Brazil</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>54455.52</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>264639.6</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1069,14 +1069,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Itumbiara, GO, Brazil</t>
+          <t>Uruaçu, GO, Brazil</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>59553.6</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1097,20 +1097,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Montividiu, GO, Brazil</t>
+          <t>Edealina, GO, Brazil</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>60315.728</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>349195.68</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1125,20 +1125,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jataí, GO, Brazil</t>
+          <t>Cabeceiras, GO, Brazil</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>75072.8</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>803639.2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Catalão, GO, Brazil</t>
+          <t>Água Fria de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>102098.4</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Caiapônia, GO, Brazil</t>
+          <t>Orizona, GO, Brazil</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157852</v>
+        <v>93300.64</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1209,14 +1209,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Vicentinópolis, GO, Brazil</t>
+          <t>Caiapônia, GO, Brazil</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55945.12</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>51537.67999999991</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>106314.3200000001</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1237,14 +1237,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bom Jesus de Goiás, GO, Brazil</t>
+          <t>Santa Cruz de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>50682.88</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>152946.96</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1265,11 +1265,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Palmeiras de Goiás, GO, Brazil</t>
+          <t>Montividiu, GO, Brazil</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>86804.16</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>349195.68</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rio Verde, GO, Brazil</t>
+          <t>Vianópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>35895.25438119665</v>
       </c>
       <c r="E31" t="n">
-        <v>947522.4</v>
+        <v>72903.30561880335</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1321,11 +1321,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Niquelândia, GO, Brazil</t>
+          <t>Mineiros, GO, Brazil</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>124868</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1343,26 +1343,26 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>264639.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Turvelândia, GO, Brazil</t>
+          <t>Piracanjuba, GO, Brazil</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>122003.0383811968</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>45926.56161880324</v>
       </c>
       <c r="E33" t="n">
-        <v>64432.8</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1377,11 +1377,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Edealina, GO, Brazil</t>
+          <t>Catalão, GO, Brazil</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>60315.728</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1405,7 +1405,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portelândia, GO, Brazil</t>
+          <t>Pontalina, GO, Brazil</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>79784.8</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>61172.4</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1433,11 +1433,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>São João d'Aliança, GO, Brazil</t>
+          <t>Portelândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>94696</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>61172.4</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1461,14 +1461,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Uruaçu, GO, Brazil</t>
+          <t>Luziânia, GO, Brazil</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>59553.6</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>165041.6</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1489,11 +1489,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pontalina, GO, Brazil</t>
+          <t>Jataí, GO, Brazil</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>79784.8</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>803639.2</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1517,17 +1517,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gameleira de Goiás, GO, Brazil</t>
+          <t>Silvânia, GO, Brazil</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>199028.8</v>
       </c>
       <c r="D39" t="n">
-        <v>69926.08</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Serranópolis, GO, Brazil</t>
+          <t>Perolândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1558,10 +1558,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>80596.48</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99059.92</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1573,11 +1573,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cabeceiras, GO, Brazil</t>
+          <t>Rio Verde, GO, Brazil</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>75072.8</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>947522.4</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1601,14 +1601,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Água Fria de Goiás, GO, Brazil</t>
+          <t>Bela Vista de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>102098.4</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>48903.72</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Joviânia, GO, Brazil</t>
+          <t>Quirinópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>54455.52</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>58869.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Morrinhos, GO, Brazil</t>
+          <t>Chapadão do Céu, GO, Brazil</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1667,32 +1667,32 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>77611.2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>143030.0999999998</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>100914.7000000002</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Silvânia, GO, Brazil</t>
+          <t>Edéia, GO, Brazil</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157055.3679999999</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>65679.2</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1707,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41973.43200000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Campo Alegre de Goiás, GO, Brazil</t>
+          <t>Itumbiara, GO, Brazil</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1735,17 +1735,17 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>78921.44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Luziânia, GO, Brazil</t>
+          <t>Campo Alegre de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>165041.6</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>53815.41838119671</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1788,14 +1788,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>IPAMERI,GO, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>IPAMERI,GO, Brazil</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>PORANGATU, GO, Brazil</t>
@@ -1803,22 +1803,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>ANÁPOLIS, GO, Brazil</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PORTO NACIONAL, TO, Brazil</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>SÃO SIMÃO, GO, Brazil</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PORTO NACIONAL, TO, Brazil</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
     </row>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>11229447.85296837</v>
       </c>
       <c r="C2" t="n">
-        <v>27327618.7297374</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>8782433.375991084</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1619748.868390618</v>
+        <v>2720363.686428505</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1893,13 +1893,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19951314.833117</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>76085450.00438102</v>
       </c>
       <c r="C5" t="n">
-        <v>971412.1256395344</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>14924810.46313729</v>
+        <v>5449101.715752359</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2085769.652497458</v>
+        <v>6429432.062792062</v>
       </c>
     </row>
     <row r="8">
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6984229.202822609</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3129767.451201111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1988,13 +1988,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4284321.444328976</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3839717.238516025</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9157419.896640826</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3410872.607645364</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11229447.85296837</v>
+        <v>2724237.649893809</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3452931.856932941</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>9666464.991903936</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2939123.578351854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2080,16 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6682681.021265404</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2351682.041694887</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>13411209.56281587</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>2724237.649893809</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>27327618.7297374</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4284321.444328976</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9095268.477993559</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>76085450.00438102</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -2164,12 +2164,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4185168.145238818</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9666464.991903936</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3410872.607645364</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2192,13 +2192,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7681164.565884356</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6921766.595004721</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2776109.561769569</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1422249.963388454</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1709693.118894456</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>10290049.33323031</v>
       </c>
       <c r="C20" t="n">
-        <v>4087640.453570582</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>24375802.72444725</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2720363.686428505</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>6837336.011700817</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>15709176.48499315</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3411210.593825674</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>7160425.13816707</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>7915836.090287932</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2356,13 +2356,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>8512897.607964963</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>23349085.7690208</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6878460.051798791</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>6687156.994889905</v>
+        <v>3129767.451201111</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6984229.202822609</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>6861473.752013083</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4503842.514792111</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6082977.135929195</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6429432.062792062</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9095268.477993559</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>7915836.090287932</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2497,10 +2497,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2993119.572852751</v>
       </c>
       <c r="D31" t="n">
-        <v>14468659.68605875</v>
+        <v>1969436.217575087</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8782433.375991084</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>15709176.48499315</v>
       </c>
     </row>
     <row r="33">
@@ -2540,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>13587734.50006011</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>4081741.559464407</v>
       </c>
       <c r="D33" t="n">
-        <v>1709693.118894456</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7160425.13816707</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -2589,13 +2589,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7577482.971608067</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3886394.276011742</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9052113.976218324</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2988596.891627493</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2629,10 +2629,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3411210.593825674</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>17506224.20912256</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9372377.578990126</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>23349085.7690208</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>20797258.63544674</v>
       </c>
       <c r="C39" t="n">
-        <v>5449101.715752359</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2707,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3002293.042503312</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3839717.238516025</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8512897.607964963</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>14468659.68605875</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9175336.995556701</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>5187812.708297322</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>5612266.585065851</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1619748.868390618</v>
       </c>
     </row>
     <row r="44">
@@ -2796,27 +2796,27 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>7411424.113578758</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>7527458.411645019</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6792064.114295848</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16411298.80892245</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>7681164.565884356</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1075640.513657432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2854,12 +2854,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3959224.657772121</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>17506224.20912256</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>2953911.325073758</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2902,14 +2902,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>IPAMERI,GO, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>IPAMERI,GO, Brazil</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>PORANGATU, GO, Brazil</t>
@@ -2917,22 +2917,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>ANÁPOLIS, GO, Brazil</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PORTO NACIONAL, TO, Brazil</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>SÃO SIMÃO, GO, Brazil</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PORTO NACIONAL, TO, Brazil</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
     </row>
@@ -2941,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3210064110039.495</v>
       </c>
       <c r="C2" t="n">
-        <v>8048011948551.794</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2434015749740.4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>255168811226.088</v>
+        <v>249902513193.168</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3007,13 +3007,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6198226556983.186</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>23405403818666.72</v>
       </c>
       <c r="C5" t="n">
-        <v>292523790578.2571</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4375658755924.8</v>
+        <v>1551002621224.762</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>464395659552.1536</v>
+        <v>1449263033425.469</v>
       </c>
     </row>
     <row r="8">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2170017477143.208</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>603598313246.1888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3102,13 +3102,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1254923160102.048</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>823789929268.0344</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3125,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2822214124580.256</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>532206281679.3936</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3210064110039.495</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>818351892619.7599</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2945338771201.943</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>452334062682.4032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3194,16 +3194,16 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2112469263151.512</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>590953852906.5431</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3670478748730.88</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8048011948551.794</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1254923160102.048</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2750518738082.765</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>23405403818666.72</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -3278,12 +3278,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1045886739767.885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2945338771201.943</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>532206281679.3936</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -3306,13 +3306,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2364115706048.856</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1938433130355.12</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>877558887176.8059</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -3338,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>355454079000.9305</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>256936781591.352</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3355,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3204187699940.856</v>
       </c>
       <c r="C20" t="n">
-        <v>1182680608414.867</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -3378,13 +3378,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7572771471866.329</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>249902513193.168</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2126069111169.764</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4130549143796.376</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>885653497992.0961</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -3447,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2208765464910.112</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>914608499171.7024</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -3470,13 +3470,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2607773169845.184</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3921471512802.48</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1883087960771.952</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1513983564170.16</v>
+        <v>603598313246.1888</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2170017477143.208</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2150386660141.659</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1019677502444.866</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1879417546664.141</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1449263033425.469</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2750518738082.765</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>914608499171.7024</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -3611,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>865536143009.682</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>303098206571.2101</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2434015749740.4</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4130549143796.376</v>
       </c>
     </row>
     <row r="33">
@@ -3654,13 +3654,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>4150591781414.065</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1196685762824.638</v>
       </c>
       <c r="D33" t="n">
-        <v>256936781591.352</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2208765464910.112</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2251162678020.552</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1045119149340.48</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2692581666317.76</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>727296530834.592</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>885653497992.0961</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>5305097385149.089</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2886560056073.185</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3921471512802.48</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3792,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>6286410375675.023</v>
       </c>
       <c r="C39" t="n">
-        <v>1551002621224.762</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>627145864537.2672</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>823789929268.0344</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2607773169845.184</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -3858,10 +3858,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2696188396736.808</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1572144459487.002</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1692391335095.967</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>255168811226.088</v>
       </c>
     </row>
     <row r="44">
@@ -3910,27 +3910,27 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2204127058027.248</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1891573976450.23</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1858902202278.771</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4960661446738.656</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2364115706048.856</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>153887247887.3275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3968,12 +3968,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>974956780102.469</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5305097385149.089</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>754786775521.5349</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1504733769.006297</v>
+        <v>1296716706.325248</v>
       </c>
       <c r="B2" t="n">
-        <v>145290611074358.8</v>
+        <v>144020659673853.8</v>
       </c>
     </row>
   </sheetData>
